--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl10-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl10-Ccr3.xlsx
@@ -537,28 +537,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.122044</v>
+        <v>26.86490966666667</v>
       </c>
       <c r="H2">
-        <v>15.366132</v>
+        <v>80.594729</v>
       </c>
       <c r="I2">
-        <v>0.0387196063811631</v>
+        <v>0.1447302967754861</v>
       </c>
       <c r="J2">
-        <v>0.03871960638116309</v>
+        <v>0.1447302967754861</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N2">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.6691899265560001</v>
+        <v>9.105628302299555</v>
       </c>
       <c r="R2">
-        <v>6.022709339004</v>
+        <v>81.95065472069599</v>
       </c>
       <c r="S2">
-        <v>0.0387196063811631</v>
+        <v>0.1447302967754861</v>
       </c>
       <c r="T2">
-        <v>0.03871960638116309</v>
+        <v>0.1447302967754861</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,22 +605,22 @@
         <v>227.042794</v>
       </c>
       <c r="I3">
-        <v>0.5721028307813247</v>
+        <v>0.4077186109324291</v>
       </c>
       <c r="J3">
-        <v>0.5721028307813247</v>
+        <v>0.4077186109324292</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N3">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>9.887637997768667</v>
+        <v>25.65139577402844</v>
       </c>
       <c r="R3">
-        <v>88.98874197991802</v>
+        <v>230.862561966256</v>
       </c>
       <c r="S3">
-        <v>0.5721028307813247</v>
+        <v>0.4077186109324291</v>
       </c>
       <c r="T3">
-        <v>0.5721028307813247</v>
+        <v>0.4077186109324292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,28 +661,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.473618</v>
+        <v>14.45399366666666</v>
       </c>
       <c r="H4">
-        <v>31.42085399999999</v>
+        <v>43.36198099999999</v>
       </c>
       <c r="I4">
-        <v>0.0791743230528017</v>
+        <v>0.07786852138807973</v>
       </c>
       <c r="J4">
-        <v>0.0791743230528017</v>
+        <v>0.07786852138807973</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N4">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.368367718082</v>
+        <v>4.899055885371554</v>
       </c>
       <c r="R4">
-        <v>12.315309462738</v>
+        <v>44.09150296834399</v>
       </c>
       <c r="S4">
-        <v>0.0791743230528017</v>
+        <v>0.07786852138807973</v>
       </c>
       <c r="T4">
-        <v>0.0791743230528017</v>
+        <v>0.07786852138807973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,28 +723,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.00894566666667</v>
+        <v>68.62066266666666</v>
       </c>
       <c r="H5">
-        <v>123.026837</v>
+        <v>205.861988</v>
       </c>
       <c r="I5">
-        <v>0.3100032397847104</v>
+        <v>0.369682570904005</v>
       </c>
       <c r="J5">
-        <v>0.3100032397847104</v>
+        <v>0.369682570904005</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N5">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>5.357777742404334</v>
+        <v>23.25837889845689</v>
       </c>
       <c r="R5">
-        <v>48.219999681639</v>
+        <v>209.325410086112</v>
       </c>
       <c r="S5">
-        <v>0.3100032397847104</v>
+        <v>0.369682570904005</v>
       </c>
       <c r="T5">
-        <v>0.3100032397847104</v>
+        <v>0.369682570904005</v>
       </c>
     </row>
   </sheetData>
